--- a/biology/Biologie cellulaire et moléculaire/John_Burdon_Sanderson_Haldane/John_Burdon_Sanderson_Haldane.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/John_Burdon_Sanderson_Haldane/John_Burdon_Sanderson_Haldane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Burdon Sanderson Haldane est un généticien britannique, né le 5 novembre 1892 à Oxford et mort le 1er décembre 1964 à Bhubaneswar en Inde.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de John Scott Haldane (1860-1936), physiologiste renommé. Il fréquente le New College d’Oxford de 1919 à 1922 où il obtient son Master of Arts. Il se marie avec Charlotte Franken en 1926. Il occupe un poste de lecteur en biochimie de 1923 à 1933. À partir de 1925 il dirige, en outre, à mi-temps, le département de génétique de l'institut horticole John Innes à Merton, poste qu'il occupe jusqu'en 1937. En 1933, il obtient le grade de professeur de génétique à l’Université de Londres, poste qu'il occupe de 1933 à 1937. Il est ensuite professeur de biométrie de 1937 à 1957. Il quitte la Grande-Bretagne pour l'Inde en 1957, et est enseignant-chercheur à l’Institut de statistique indien à Calcutta de 1957 à 1961. En 1962, il fonde un laboratoire de génétique et biométrie à Bhubaneswar, toujours en Inde, qu'il dirige jusqu'à sa mort en 1964. Après son divorce en 1945, il se remarie la même année avec Helen Spurway.
 Haldane devient membre de la Royal Society en 1932, de la Genetical Society (qu’il dirige de 1932 à 1936) et membre honoraire de nombreuses académies des sciences dont celle de Moscou, Berlin, du Danemark, etc. Il entre dans la légion d'honneur en 1937, reçoit la médaille Darwin de la Société linnéenne de Londres en 1953 ainsi que la médaille d’argent Darwin-Wallace en 1958, la médaille Kimber de la National Academy of Sciences en 1961, le prix Antonio Feltrinelli de l’Académie des Lyncéens.
 Haldane est l’auteur de très nombreuses publications tant scientifiques que de vulgarisation. Considéré comme l'un des fondateurs de la génétique des populations avec Ronald Fisher et Sewall Wright, il s’intéresse à l’application des mathématiques aux espèces vivantes pour comprendre les phénomènes génétiques et l'évolution biologique. 
 En tant que progressiste, il est partisan de l'eugénisme, et signera en 1939 le Manifeste des généticiens aux côtés de Julian Huxley et d'autres éminents biologistes. Ce texte prône un eugénisme « de gauche », où l’amélioration des conditions sociales est présentée comme la condition de la réussite et de l’efficacité d’une politique eugéniste sur le long terme. Il est l’auteur du concept d’ectogenèse (gestation du fœtus humain dans un utérus artificiel).
-Il serait aussi à l'origine de la citation : « Dieu a une affection démesurée pour les coléoptères »[1] (« God has an inordinate fondness for beetles ») compte tenu du nombre important d'espèces de ce groupe taxonomique sur Terre par rapport aux autres espèces[2].
+Il serait aussi à l'origine de la citation : « Dieu a une affection démesurée pour les coléoptères » (« God has an inordinate fondness for beetles ») compte tenu du nombre important d'espèces de ce groupe taxonomique sur Terre par rapport aux autres espèces.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Quelques pronostics</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dans une conférence tenue en 1923, J.B.S. Haldane disait :
-« Si une éolienne dans le jardin pouvait produire 50 kg de charbon par jour (or, elle peut produire l’équivalent en énergie), nos mines de charbon fermeraient dès demain. Personnellement, je pense que d’ici 400 ans, on aura peut-être résolu le problème de l’énergie en Angleterre de la façon suivante : le pays sera recouvert de rangées d’éoliennes de métal, entraînant des moteurs électriques qui eux-mêmes fourniront un courant à très haute tension à un grand réseau électrique. De grandes centrales judicieuses espacées utiliseront le surplus d’énergie des périodes venteuses pour effectuer la décomposition électrolytique de l’eau en oxygène et en hydrogène. Ces gaz seront liquéfiés et stockés dans de vastes réservoirs à double paroi sous vide, probablement enterrés. (…) Par temps calme, les gaz seraient recombinés dans des moteurs à explosion reliés à des dynamos pour récupérer de l’électricité ou, plus probablement, dans des piles à combustibles. »[3]
+« Si une éolienne dans le jardin pouvait produire 50 kg de charbon par jour (or, elle peut produire l’équivalent en énergie), nos mines de charbon fermeraient dès demain. Personnellement, je pense que d’ici 400 ans, on aura peut-être résolu le problème de l’énergie en Angleterre de la façon suivante : le pays sera recouvert de rangées d’éoliennes de métal, entraînant des moteurs électriques qui eux-mêmes fourniront un courant à très haute tension à un grand réseau électrique. De grandes centrales judicieuses espacées utiliseront le surplus d’énergie des périodes venteuses pour effectuer la décomposition électrolytique de l’eau en oxygène et en hydrogène. Ces gaz seront liquéfiés et stockés dans de vastes réservoirs à double paroi sous vide, probablement enterrés. (…) Par temps calme, les gaz seraient recombinés dans des moteurs à explosion reliés à des dynamos pour récupérer de l’électricité ou, plus probablement, dans des piles à combustibles. »
 Dans cette même conférence, il anticipait aussi un large essor de la rapidité des moyens de communication, sans évoquer de forme particulière, mais en se basant sur la limite théorique de la vitesse des ondes électromagnétiques : « Nous avançons vers une situation où deux personnes prises au hasard sur Terre pourront être pleinement présentes l’une à l’autre en moins d’un vingt-quatrième de seconde. »
 Il évoquait également la traite électrique des vaches, l'eugénisme, l'ectogenèse...
 </t>
@@ -581,7 +597,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1923 - Daedalus or, Science and the Future (trad. fr. Dédale &amp; Icare, éd. Allia, 2015  (ISBN 978-2-84485-977-8)), un essai d'anticipation qui inspirera à Aldous Huxley Le Meilleur des mondes (1932) où il reprend le concept d’ectogenèse.
 1924 - A mathematical theory of natural and artificial selection. Part I
@@ -590,7 +608,7 @@
 1928 - On Being the Right Size
 1930 - Enzymes
 1932 - The Inequality of Man
-1932 - The Causes of Evolution[4]  (ISBN 0-691-02442-1)
+1932 - The Causes of Evolution  (ISBN 0-691-02442-1)
 1933 - Science and the Supernatural: A correspondence between Arnold Lunn and J. B. S. Haldane
 1934 - If...
 1934 - Human Biology and Politics
